--- a/biology/Botanique/Phytolacca_icosandra/Phytolacca_icosandra.xlsx
+++ b/biology/Botanique/Phytolacca_icosandra/Phytolacca_icosandra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Raisin tropicale
 Modèle:Taxobo début
@@ -501,7 +513,7 @@
 Espèce
 Phytolacca icosandraL., 1753
 Classification phylogénétique
-Le Raisin tropical (Phytolacca icosandra) est une espèce de plantes herbacées, vivaces, de la famille des Phytolaccaceae[1],[2],[3].
+Le Raisin tropical (Phytolacca icosandra) est une espèce de plantes herbacées, vivaces, de la famille des Phytolaccaceae.
 </t>
         </is>
       </c>
@@ -530,7 +542,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de genre provient de phyto (plante) et de lacca qui serait une forme latinisée du mot laque ou un dérivé du persan lakk ayant un sens similaire et avec 8 à 20 étamines, icosandra signifie « vingt étamines ».
 </t>
@@ -561,7 +575,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Raisin tropicale atteint jusqu'à 3 m de haut, avec des feuilles de 10 à 20 cm sur 9 à 14 cm. Les fleurs sont produites en grappes de 10 à 15 cm de long, chaque fleur de 5 à 10 mm de diamètre, avec 8 à 20 étamines. Le fruit est une baie noire de 5 à 8 mm de diamètre.
 </t>
